--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,8 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">e
-</t>
+    <t>gandhi</t>
   </si>
 </sst>
 </file>
@@ -349,17 +348,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:B5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B1">
         <v>1</v>
       </c>
     </row>
